--- a/Plancheck/plancheck_data/check_protocol/STEC rein 3F.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/STEC rein 3F.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="212">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -469,12 +469,6 @@
     <t>VesiculeBiliaire</t>
   </si>
   <si>
-    <t>OARcreux_35[Gy]</t>
-  </si>
-  <si>
-    <t>OARColon_32[Gy]</t>
-  </si>
-  <si>
     <t>AnsesGrele-PTVs</t>
   </si>
   <si>
@@ -505,28 +499,166 @@
     <t>V25Gy&lt;10cc</t>
   </si>
   <si>
-    <t>D0,5cc&lt;50Gy</t>
-  </si>
-  <si>
-    <t>Foie-ITV</t>
-  </si>
-  <si>
-    <t>V10Gy&lt;70%</t>
-  </si>
-  <si>
-    <t>D50%&lt;15,2Gy</t>
-  </si>
-  <si>
     <t>D0,5cc&lt;38Gy</t>
   </si>
   <si>
     <t>V18,3Gy&lt;15cc</t>
   </si>
   <si>
-    <t>D0,5cc&lt;39Gy</t>
-  </si>
-  <si>
-    <t>V32Gy&lt;30cc</t>
+    <t>GreleDuod_28.5[Gy]</t>
+  </si>
+  <si>
+    <t>Colon_42[Gy]</t>
+  </si>
+  <si>
+    <t>estomac_30[Gy]</t>
+  </si>
+  <si>
+    <t>Plexus+3</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;32Gy</t>
+  </si>
+  <si>
+    <t>V30Gy&lt;3cc</t>
+  </si>
+  <si>
+    <t>Coeur</t>
+  </si>
+  <si>
+    <t>D0,5cc&lt;29Gy</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>Trachee</t>
+  </si>
+  <si>
+    <t>Poumons-ITV</t>
+  </si>
+  <si>
+    <t>D1500cc&lt;12,5Gy</t>
+  </si>
+  <si>
+    <t>D1000cc&lt;13,5Gy</t>
+  </si>
+  <si>
+    <t>Œsophage</t>
+  </si>
+  <si>
+    <t>D0,5cc&lt;34Gy</t>
+  </si>
+  <si>
+    <t>Larynx</t>
+  </si>
+  <si>
+    <t>Pharynx</t>
+  </si>
+  <si>
+    <t>V33Gy&lt;1cc</t>
+  </si>
+  <si>
+    <t>V25Gy&lt;5cc</t>
+  </si>
+  <si>
+    <t>V15Gy&lt;9cc</t>
+  </si>
+  <si>
+    <t>Grele</t>
+  </si>
+  <si>
+    <t>Rein unique</t>
+  </si>
+  <si>
+    <t>TeteFemorDte</t>
+  </si>
+  <si>
+    <t>V30Gy&lt;10cc</t>
+  </si>
+  <si>
+    <t>TeteFemorGche</t>
+  </si>
+  <si>
+    <t>Canal Med</t>
+  </si>
+  <si>
+    <t>QueueDeCheval</t>
+  </si>
+  <si>
+    <t>V30Gy&lt;5cc</t>
+  </si>
+  <si>
+    <t>Tronc Cerebral</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;31Gy</t>
+  </si>
+  <si>
+    <t>V26Gy&lt;1cc</t>
+  </si>
+  <si>
+    <t>Aorte GtsVx</t>
+  </si>
+  <si>
+    <t>D0,5cc&lt;53Gy</t>
+  </si>
+  <si>
+    <t>D100%&gt;98%</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;140%</t>
+  </si>
+  <si>
+    <t>D100%&gt;95%</t>
+  </si>
+  <si>
+    <t>D0,35cc&lt;15,9Gy</t>
+  </si>
+  <si>
+    <t>D0,035cc&lt;22,5Gy</t>
+  </si>
+  <si>
+    <t>D0,035cc&lt;28,5Gy</t>
+  </si>
+  <si>
+    <t>D30cc&lt;20,7Gy</t>
+  </si>
+  <si>
+    <t>Duodenum+3</t>
+  </si>
+  <si>
+    <t>D5cc&lt;22,5Gy</t>
+  </si>
+  <si>
+    <t>Colon+3</t>
+  </si>
+  <si>
+    <t>D0,035cc&lt;42Gy</t>
+  </si>
+  <si>
+    <t>D20cc&lt;28,8Gy</t>
+  </si>
+  <si>
+    <t>Estomac+3</t>
+  </si>
+  <si>
+    <t>D0,035cc&lt;30Gy</t>
+  </si>
+  <si>
+    <t>V700cc&lt;17Gy</t>
+  </si>
+  <si>
+    <t>V33%&lt;15Gy</t>
+  </si>
+  <si>
+    <t>D0,035cc&lt;33Gy</t>
+  </si>
+  <si>
+    <t>D10cc&lt;31Gy</t>
+  </si>
+  <si>
+    <t>D5cc&lt;40Gy</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2484,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,10 +2657,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2681,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -2557,7 +2689,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>106</v>
@@ -2565,81 +2697,81 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>120</v>
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2652,9 +2784,17 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2745,16 +2885,16 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="11" width="14.140625" customWidth="1"/>
   </cols>
@@ -2799,139 +2939,473 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>159</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>159</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="H5" s="12"/>
+      <c r="A5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="H6" s="12"/>
+      <c r="A6" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="H8" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="H9" s="12"/>
+      <c r="A9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="H11" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="B32" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
